--- a/训练语料/服务意图.xlsx
+++ b/训练语料/服务意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25050" windowHeight="11580"/>
+    <workbookView windowWidth="25050" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -42,7 +42,7 @@
     <t>kae.libs.webserv</t>
   </si>
   <si>
-    <t>KServer(kae.libs.sys.getobj{{args}})</t>
+    <t>KServer(kae.libs.sys.getobj({{src}}))</t>
   </si>
   <si>
     <t>在线服务</t>
@@ -54,10 +54,10 @@
     <t>运行服务</t>
   </si>
   <si>
-    <t>runkserv(kae.libs.sys.getobj{{args}})</t>
-  </si>
-  <si>
-    <t>运行</t>
+    <t>runkserv(kae.libs.sys.getobj({{tarargs}}))</t>
+  </si>
+  <si>
+    <t>启动</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1085,7 +1085,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
